--- a/team_mapping.xlsx
+++ b/team_mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\CT\Company-Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CA896D-538C-4979-A622-0DDD39A0E4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AE358C-398B-46E7-BDB7-26535BD5AB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Teams in Digital</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>frontend-platform-write</t>
+  </si>
+  <si>
+    <t>Teams in EMU</t>
   </si>
 </sst>
 </file>
@@ -361,7 +364,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,7 +378,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/team_mapping.xlsx
+++ b/team_mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\CT\Company-Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\CT\Company-Tasks\Company-Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AE358C-398B-46E7-BDB7-26535BD5AB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A290911D-A208-411C-AE07-18A915F4FB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
